--- a/positions1.xlsx
+++ b/positions1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sanaz\MASTER\ASU\Semesters\Fall 2021\CPP 527\Labs\Lab 06\cv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sanaz\MASTER\ASU\Semesters\Fall 2021\CPP 527\Labs\Lab 06\Sanaz-CV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24D1BB68-803F-4FED-BD1C-655E30805EEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56340673-CBB7-4B14-AC14-3F967AB1A6CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1872" windowWidth="9312" windowHeight="10488" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="positions" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="180">
   <si>
     <t>section</t>
   </si>
@@ -208,36 +208,12 @@
     <t>industry_positions</t>
   </si>
   <si>
-    <t>Software Engineering Intern</t>
-  </si>
-  <si>
     <t>Conduce</t>
   </si>
   <si>
     <t>Carpinteria, CA</t>
   </si>
   <si>
-    <t>Incorporated d3.js to the company's main software platform.</t>
-  </si>
-  <si>
-    <t>Engineering Intern - User Experience</t>
-  </si>
-  <si>
-    <t>Dealer.com</t>
-  </si>
-  <si>
-    <t>Burlington, VT</t>
-  </si>
-  <si>
-    <t>Built internal tool to help analyze and visualize user interaction with back-end products.</t>
-  </si>
-  <si>
-    <t>Data Science Intern</t>
-  </si>
-  <si>
-    <t>Worked with the product analytics team to help parse and visualize large stores of data to drive business decisions.</t>
-  </si>
-  <si>
     <t>Data Artist In Residence</t>
   </si>
   <si>
@@ -557,6 +533,36 @@
   </si>
   <si>
     <t>Bayesian network analysis used to find robust novel subgroups of patients with given genetic mutations.</t>
+  </si>
+  <si>
+    <t>Projects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mishwar </t>
+  </si>
+  <si>
+    <t>Graduation Project</t>
+  </si>
+  <si>
+    <t>Furniture Design</t>
+  </si>
+  <si>
+    <t>Facebook Page</t>
+  </si>
+  <si>
+    <t>Injaz</t>
+  </si>
+  <si>
+    <t>Facebook Page that Publishes all Kind of Opportunities and Important Websites for Youth.</t>
+  </si>
+  <si>
+    <t>Biochemical-Bomb War Shelter Sample in Amman-Jordan</t>
+  </si>
+  <si>
+    <t>Multiple " Architect Students Locker " Designs For Small Areas.</t>
+  </si>
+  <si>
+    <t>Design for Multi-Functional Architecture Student Study/Draw Table.</t>
   </si>
 </sst>
 </file>
@@ -1407,11 +1413,12 @@
   <dimension ref="A1:J46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="16.5546875" customWidth="1"/>
     <col min="6" max="7" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1801,28 +1808,28 @@
     </row>
     <row r="13" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>60</v>
+        <v>170</v>
       </c>
       <c r="B13" t="b">
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>61</v>
+        <v>171</v>
       </c>
       <c r="D13" t="s">
-        <v>62</v>
+        <v>174</v>
       </c>
       <c r="E13" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="F13" s="2">
-        <v>2014</v>
-      </c>
-      <c r="G13" s="2">
-        <v>2014</v>
+        <v>43469</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="H13" t="s">
-        <v>64</v>
+        <v>176</v>
       </c>
       <c r="I13" t="s">
         <v>14</v>
@@ -1833,28 +1840,28 @@
     </row>
     <row r="14" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>60</v>
+        <v>170</v>
       </c>
       <c r="B14" t="b">
         <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>65</v>
+        <v>172</v>
       </c>
       <c r="D14" t="s">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="E14" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="F14" s="2">
-        <v>2015</v>
-      </c>
-      <c r="G14" s="2">
-        <v>2015</v>
+        <v>42010</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="H14" t="s">
-        <v>68</v>
+        <v>177</v>
       </c>
       <c r="I14" t="s">
         <v>14</v>
@@ -1865,31 +1872,31 @@
     </row>
     <row r="15" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>60</v>
+        <v>170</v>
       </c>
       <c r="B15" t="b">
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>69</v>
+        <v>173</v>
       </c>
       <c r="D15" t="s">
-        <v>66</v>
+        <v>175</v>
       </c>
       <c r="E15" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="F15" s="2">
-        <v>2015</v>
-      </c>
-      <c r="G15" s="2">
-        <v>2015</v>
+        <v>42010</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>70</v>
+        <v>178</v>
       </c>
       <c r="I15" t="s">
-        <v>14</v>
+        <v>179</v>
       </c>
       <c r="J15" t="s">
         <v>14</v>
@@ -1903,25 +1910,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D16" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" t="s">
         <v>62</v>
       </c>
-      <c r="E16" t="s">
-        <v>63</v>
-      </c>
       <c r="F16" s="2">
-        <v>2014</v>
+        <v>41278</v>
       </c>
       <c r="G16" s="2">
         <v>2015</v>
       </c>
       <c r="H16" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="I16" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="J16" t="s">
         <v>14</v>
@@ -1935,13 +1942,13 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D17" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="E17" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F17" s="2">
         <v>2016</v>
@@ -1950,10 +1957,10 @@
         <v>2016</v>
       </c>
       <c r="H17" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="I17" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="J17" t="s">
         <v>14</v>
@@ -1961,19 +1968,19 @@
     </row>
     <row r="18" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B18" t="b">
         <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D18" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="E18" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F18" s="2">
         <v>2017</v>
@@ -1982,30 +1989,30 @@
         <v>2017</v>
       </c>
       <c r="H18" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="I18" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="J18" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B19" t="b">
         <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D19" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="E19" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F19" s="2">
         <v>2017</v>
@@ -2014,30 +2021,30 @@
         <v>2018</v>
       </c>
       <c r="H19" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="I19" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J19" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B20" t="b">
         <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="D20" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="E20" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F20" s="2">
         <v>2018</v>
@@ -2046,30 +2053,30 @@
         <v>2018</v>
       </c>
       <c r="H20" t="s">
+        <v>75</v>
+      </c>
+      <c r="I20" t="s">
+        <v>82</v>
+      </c>
+      <c r="J20" t="s">
         <v>83</v>
-      </c>
-      <c r="I20" t="s">
-        <v>90</v>
-      </c>
-      <c r="J20" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B21" t="b">
         <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="D21" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="E21" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F21" s="2">
         <v>2019</v>
@@ -2078,30 +2085,30 @@
         <v>2019</v>
       </c>
       <c r="H21" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="I21" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="J21" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B22" t="b">
         <v>0</v>
       </c>
       <c r="C22" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="D22" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="E22" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F22" s="2">
         <v>2019</v>
@@ -2110,10 +2117,10 @@
         <v>2019</v>
       </c>
       <c r="H22" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="I22" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="J22" t="s">
         <v>14</v>
@@ -2121,16 +2128,16 @@
     </row>
     <row r="23" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
       </c>
       <c r="C23" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="D23" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="E23" t="s">
         <v>14</v>
@@ -2142,10 +2149,10 @@
         <v>2018</v>
       </c>
       <c r="H23" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="I23" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="J23" t="s">
         <v>14</v>
@@ -2153,16 +2160,16 @@
     </row>
     <row r="24" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B24" t="b">
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D24" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E24" t="s">
         <v>14</v>
@@ -2174,27 +2181,27 @@
         <v>2019</v>
       </c>
       <c r="H24" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="I24" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="J24" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
       </c>
       <c r="C25" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="D25" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E25" t="s">
         <v>14</v>
@@ -2206,10 +2213,10 @@
         <v>2018</v>
       </c>
       <c r="H25" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="I25" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="J25" t="s">
         <v>14</v>
@@ -2217,16 +2224,16 @@
     </row>
     <row r="26" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
       </c>
       <c r="C26" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="D26" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E26" t="s">
         <v>14</v>
@@ -2238,10 +2245,10 @@
         <v>2017</v>
       </c>
       <c r="H26" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="I26" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="J26" t="s">
         <v>14</v>
@@ -2249,16 +2256,16 @@
     </row>
     <row r="27" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
       </c>
       <c r="C27" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="D27" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E27" t="s">
         <v>14</v>
@@ -2270,10 +2277,10 @@
         <v>2017</v>
       </c>
       <c r="H27" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="I27" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="J27" t="s">
         <v>14</v>
@@ -2281,16 +2288,16 @@
     </row>
     <row r="28" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B28" t="b">
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="D28" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E28" t="s">
         <v>14</v>
@@ -2302,10 +2309,10 @@
         <v>2017</v>
       </c>
       <c r="H28" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="I28" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="J28" t="s">
         <v>14</v>
@@ -2313,19 +2320,19 @@
     </row>
     <row r="29" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
       </c>
       <c r="C29" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D29" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="E29" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F29" s="2">
         <v>2017</v>
@@ -2334,7 +2341,7 @@
         <v>2017</v>
       </c>
       <c r="H29" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="I29" t="s">
         <v>14</v>
@@ -2345,19 +2352,19 @@
     </row>
     <row r="30" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
       </c>
       <c r="C30" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="D30" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="E30" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F30" s="2">
         <v>2017</v>
@@ -2366,7 +2373,7 @@
         <v>2017</v>
       </c>
       <c r="H30" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="I30" t="s">
         <v>14</v>
@@ -2377,19 +2384,19 @@
     </row>
     <row r="31" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
+        <v>115</v>
+      </c>
+      <c r="B31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C31" t="s">
+        <v>122</v>
+      </c>
+      <c r="D31" t="s">
         <v>123</v>
       </c>
-      <c r="B31" t="b">
-        <v>0</v>
-      </c>
-      <c r="C31" t="s">
-        <v>130</v>
-      </c>
-      <c r="D31" t="s">
-        <v>131</v>
-      </c>
       <c r="E31" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F31" s="2">
         <v>2016</v>
@@ -2398,7 +2405,7 @@
         <v>2016</v>
       </c>
       <c r="H31" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="I31" t="s">
         <v>14</v>
@@ -2409,19 +2416,19 @@
     </row>
     <row r="32" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B32" t="b">
         <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="D32" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="E32" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F32" s="2">
         <v>2016</v>
@@ -2430,7 +2437,7 @@
         <v>2016</v>
       </c>
       <c r="H32" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="I32" t="s">
         <v>14</v>
@@ -2441,19 +2448,19 @@
     </row>
     <row r="33" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
       </c>
       <c r="C33" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D33" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="E33" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F33" s="2">
         <v>2016</v>
@@ -2462,10 +2469,10 @@
         <v>2016</v>
       </c>
       <c r="H33" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="I33" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="J33" t="s">
         <v>14</v>
@@ -2473,19 +2480,19 @@
     </row>
     <row r="34" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
       </c>
       <c r="C34" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D34" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="E34" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F34" s="2">
         <v>2016</v>
@@ -2494,7 +2501,7 @@
         <v>2016</v>
       </c>
       <c r="H34" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="I34" t="s">
         <v>14</v>
@@ -2505,19 +2512,19 @@
     </row>
     <row r="35" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B35" t="b">
         <v>0</v>
       </c>
       <c r="C35" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="D35" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="E35" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F35" s="2">
         <v>2016</v>
@@ -2526,7 +2533,7 @@
         <v>2016</v>
       </c>
       <c r="H35" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="I35" t="s">
         <v>14</v>
@@ -2537,19 +2544,19 @@
     </row>
     <row r="36" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B36" t="b">
         <v>0</v>
       </c>
       <c r="C36" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D36" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="E36" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F36" s="2">
         <v>2016</v>
@@ -2558,10 +2565,10 @@
         <v>2016</v>
       </c>
       <c r="H36" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="I36" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="J36" t="s">
         <v>14</v>
@@ -2569,19 +2576,19 @@
     </row>
     <row r="37" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B37" t="b">
         <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="D37" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="E37" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F37" s="2">
         <v>2015</v>
@@ -2590,7 +2597,7 @@
         <v>2015</v>
       </c>
       <c r="H37" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="I37" t="s">
         <v>14</v>
@@ -2601,19 +2608,19 @@
     </row>
     <row r="38" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B38" t="b">
         <v>0</v>
       </c>
       <c r="C38" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="D38" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="E38" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F38" s="2">
         <v>2015</v>
@@ -2622,7 +2629,7 @@
         <v>2015</v>
       </c>
       <c r="H38" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="I38" t="s">
         <v>14</v>
@@ -2633,19 +2640,19 @@
     </row>
     <row r="39" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
+        <v>139</v>
+      </c>
+      <c r="B39" t="b">
+        <v>0</v>
+      </c>
+      <c r="C39" t="s">
+        <v>146</v>
+      </c>
+      <c r="D39" t="s">
         <v>147</v>
       </c>
-      <c r="B39" t="b">
-        <v>0</v>
-      </c>
-      <c r="C39" t="s">
-        <v>154</v>
-      </c>
-      <c r="D39" t="s">
-        <v>155</v>
-      </c>
       <c r="E39" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F39" s="2">
         <v>2015</v>
@@ -2654,7 +2661,7 @@
         <v>2015</v>
       </c>
       <c r="H39" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="I39" t="s">
         <v>14</v>
@@ -2665,19 +2672,19 @@
     </row>
     <row r="40" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B40" t="b">
         <v>0</v>
       </c>
       <c r="C40" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="D40" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="E40" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F40" s="2">
         <v>2017</v>
@@ -2686,10 +2693,10 @@
         <v>2017</v>
       </c>
       <c r="H40" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="I40" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="J40" t="s">
         <v>14</v>
@@ -2697,19 +2704,19 @@
     </row>
     <row r="41" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B41" t="b">
         <v>1</v>
       </c>
       <c r="C41" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="D41" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="E41" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F41" s="2">
         <v>2019</v>
@@ -2718,7 +2725,7 @@
         <v>2019</v>
       </c>
       <c r="H41" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="I41" t="s">
         <v>14</v>
@@ -2729,19 +2736,19 @@
     </row>
     <row r="42" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B42" t="b">
         <v>0</v>
       </c>
       <c r="C42" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="D42" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="E42" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F42" s="2">
         <v>2018</v>
@@ -2750,7 +2757,7 @@
         <v>2018</v>
       </c>
       <c r="H42" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="I42" t="s">
         <v>14</v>
@@ -2761,19 +2768,19 @@
     </row>
     <row r="43" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B43" t="b">
         <v>1</v>
       </c>
       <c r="C43" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="D43" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="E43" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F43" s="2">
         <v>2019</v>
@@ -2782,7 +2789,7 @@
         <v>2019</v>
       </c>
       <c r="H43" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="I43" t="s">
         <v>14</v>
@@ -2793,19 +2800,19 @@
     </row>
     <row r="44" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B44" t="b">
         <v>0</v>
       </c>
       <c r="C44" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="D44" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="E44" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F44" s="2">
         <v>2019</v>
@@ -2814,7 +2821,7 @@
         <v>2019</v>
       </c>
       <c r="H44" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="I44" t="s">
         <v>14</v>
@@ -2825,16 +2832,16 @@
     </row>
     <row r="45" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B45" t="b">
         <v>0</v>
       </c>
       <c r="C45" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="D45" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="E45" t="s">
         <v>14</v>
@@ -2846,10 +2853,10 @@
         <v>2019</v>
       </c>
       <c r="H45" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="I45" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="J45" t="s">
         <v>14</v>
@@ -2857,16 +2864,16 @@
     </row>
     <row r="46" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B46" t="b">
         <v>0</v>
       </c>
       <c r="C46" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="D46" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="E46" t="s">
         <v>14</v>
@@ -2878,10 +2885,10 @@
         <v>2019</v>
       </c>
       <c r="H46" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="I46" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="J46" t="s">
         <v>14</v>

--- a/positions1.xlsx
+++ b/positions1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sanaz\MASTER\ASU\Semesters\Fall 2021\CPP 527\Labs\Lab 06\Sanaz-CV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56340673-CBB7-4B14-AC14-3F967AB1A6CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74CB145C-AD9B-4548-BA05-D4852A3BD06B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1872" windowWidth="9312" windowHeight="10488" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="positions" sheetId="1" r:id="rId1"/>
@@ -1413,13 +1413,13 @@
   <dimension ref="A1:J46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.5546875" customWidth="1"/>
-    <col min="6" max="7" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1823,10 +1823,10 @@
         <v>13</v>
       </c>
       <c r="F13" s="2">
-        <v>43469</v>
+        <v>43556</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="H13" t="s">
         <v>176</v>
@@ -1855,7 +1855,7 @@
         <v>19</v>
       </c>
       <c r="F14" s="2">
-        <v>42010</v>
+        <v>42156</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>14</v>
@@ -1887,7 +1887,7 @@
         <v>19</v>
       </c>
       <c r="F15" s="2">
-        <v>42010</v>
+        <v>41365</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>14</v>

--- a/positions1.xlsx
+++ b/positions1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sanaz\MASTER\ASU\Semesters\Fall 2021\CPP 527\Labs\Lab 06\Sanaz-CV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74CB145C-AD9B-4548-BA05-D4852A3BD06B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E378098-3FF2-443C-87FE-91610518E5DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="178">
   <si>
     <t>section</t>
   </si>
@@ -65,12 +65,6 @@
   </si>
   <si>
     <t>NA</t>
-  </si>
-  <si>
-    <t>Diploma: Palestinian Studies</t>
-  </si>
-  <si>
-    <t>Academy of Refugee Studies</t>
   </si>
   <si>
     <t>B.S., Architecture Engineering &amp; Building Systems</t>
@@ -1410,10 +1404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J46"/>
+  <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1491,7 +1485,7 @@
         <v>10</v>
       </c>
       <c r="B3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
         <v>15</v>
@@ -1500,13 +1494,13 @@
         <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F3" s="2">
-        <v>43344</v>
+        <v>40940</v>
       </c>
       <c r="G3" s="2">
-        <v>43586</v>
+        <v>42156</v>
       </c>
       <c r="H3" t="s">
         <v>14</v>
@@ -1526,19 +1520,19 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
       <c r="F4" s="2">
-        <v>40940</v>
+        <v>40087</v>
       </c>
       <c r="G4" s="2">
-        <v>42156</v>
+        <v>40695</v>
       </c>
       <c r="H4" t="s">
         <v>14</v>
@@ -1552,284 +1546,284 @@
     </row>
     <row r="5" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F5" s="2">
-        <v>40087</v>
-      </c>
-      <c r="G5" s="2">
-        <v>40695</v>
-      </c>
-      <c r="H5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" t="s">
-        <v>14</v>
+        <v>42461</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F6" s="2">
+        <v>42278</v>
+      </c>
+      <c r="G6" s="2">
         <v>42461</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>28</v>
+      <c r="H6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F7" s="2">
-        <v>42278</v>
+        <v>42095</v>
       </c>
       <c r="G7" s="2">
         <v>42461</v>
       </c>
       <c r="H7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="J7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="B8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F8" s="2">
-        <v>42095</v>
+        <v>42491</v>
       </c>
       <c r="G8" s="2">
-        <v>42461</v>
+        <v>43891</v>
       </c>
       <c r="H8" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I8" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="J8" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E9" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="F9" s="2">
-        <v>42491</v>
+        <v>42917</v>
       </c>
       <c r="G9" s="2">
-        <v>43891</v>
+        <v>43009</v>
       </c>
       <c r="H9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I9" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J9" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E10" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="F10" s="2">
-        <v>42917</v>
+        <v>42125</v>
       </c>
       <c r="G10" s="2">
-        <v>43009</v>
+        <v>42887</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I10" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="J10" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D11" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F11" s="2">
-        <v>42125</v>
+        <v>41730</v>
       </c>
       <c r="G11" s="2">
-        <v>42887</v>
+        <v>42156</v>
       </c>
       <c r="H11" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="I11" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="J11" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>168</v>
       </c>
       <c r="B12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>169</v>
       </c>
       <c r="D12" t="s">
-        <v>56</v>
+        <v>172</v>
       </c>
       <c r="E12" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F12" s="2">
-        <v>41730</v>
-      </c>
-      <c r="G12" s="2">
-        <v>42156</v>
+        <v>43556</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="H12" t="s">
-        <v>57</v>
+        <v>174</v>
       </c>
       <c r="I12" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="J12" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>168</v>
+      </c>
+      <c r="B13" t="b">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
         <v>170</v>
       </c>
-      <c r="B13" t="b">
-        <v>0</v>
-      </c>
-      <c r="C13" t="s">
-        <v>171</v>
-      </c>
       <c r="D13" t="s">
-        <v>174</v>
+        <v>16</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F13" s="2">
-        <v>43556</v>
+        <v>42156</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="H13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I13" t="s">
         <v>14</v>
@@ -1840,31 +1834,31 @@
     </row>
     <row r="14" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B14" t="b">
         <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D14" t="s">
-        <v>18</v>
+        <v>173</v>
       </c>
       <c r="E14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F14" s="2">
-        <v>42156</v>
+        <v>41365</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H14" t="s">
+        <v>176</v>
+      </c>
+      <c r="I14" t="s">
         <v>177</v>
-      </c>
-      <c r="I14" t="s">
-        <v>14</v>
       </c>
       <c r="J14" t="s">
         <v>14</v>
@@ -1872,31 +1866,31 @@
     </row>
     <row r="15" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>170</v>
+        <v>58</v>
       </c>
       <c r="B15" t="b">
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>173</v>
+        <v>61</v>
       </c>
       <c r="D15" t="s">
-        <v>175</v>
+        <v>59</v>
       </c>
       <c r="E15" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="F15" s="2">
-        <v>41365</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>14</v>
+        <v>41278</v>
+      </c>
+      <c r="G15" s="2">
+        <v>2015</v>
       </c>
       <c r="H15" t="s">
-        <v>178</v>
+        <v>62</v>
       </c>
       <c r="I15" t="s">
-        <v>179</v>
+        <v>63</v>
       </c>
       <c r="J15" t="s">
         <v>14</v>
@@ -1904,31 +1898,31 @@
     </row>
     <row r="16" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D16" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E16" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F16" s="2">
-        <v>41278</v>
+        <v>2016</v>
       </c>
       <c r="G16" s="2">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="H16" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="I16" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="J16" t="s">
         <v>14</v>
@@ -1936,147 +1930,147 @@
     </row>
     <row r="17" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="B17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D17" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E17" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F17" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="G17" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="H17" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="I17" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="J17" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" t="b">
+        <v>0</v>
+      </c>
+      <c r="C18" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" t="s">
         <v>71</v>
       </c>
-      <c r="B18" t="b">
-        <v>0</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="E18" t="s">
         <v>72</v>
-      </c>
-      <c r="D18" t="s">
-        <v>73</v>
-      </c>
-      <c r="E18" t="s">
-        <v>74</v>
       </c>
       <c r="F18" s="2">
         <v>2017</v>
       </c>
       <c r="G18" s="2">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="H18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I18" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" t="b">
+        <v>0</v>
+      </c>
+      <c r="C19" t="s">
+        <v>79</v>
+      </c>
+      <c r="D19" t="s">
         <v>71</v>
       </c>
-      <c r="B19" t="b">
-        <v>0</v>
-      </c>
-      <c r="C19" t="s">
-        <v>78</v>
-      </c>
-      <c r="D19" t="s">
-        <v>73</v>
-      </c>
       <c r="E19" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F19" s="2">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="G19" s="2">
         <v>2018</v>
       </c>
       <c r="H19" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I19" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J19" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B20" t="b">
         <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D20" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="E20" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="F20" s="2">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="G20" s="2">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="H20" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="I20" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="J20" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B21" t="b">
         <v>0</v>
       </c>
       <c r="C21" t="s">
+        <v>88</v>
+      </c>
+      <c r="D21" t="s">
+        <v>83</v>
+      </c>
+      <c r="E21" t="s">
         <v>84</v>
-      </c>
-      <c r="D21" t="s">
-        <v>85</v>
-      </c>
-      <c r="E21" t="s">
-        <v>86</v>
       </c>
       <c r="F21" s="2">
         <v>2019</v>
@@ -2085,42 +2079,42 @@
         <v>2019</v>
       </c>
       <c r="H21" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I21" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J21" t="s">
-        <v>89</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="B22" t="b">
         <v>0</v>
       </c>
       <c r="C22" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D22" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="E22" t="s">
-        <v>86</v>
-      </c>
-      <c r="F22" s="2">
-        <v>2019</v>
+        <v>14</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="G22" s="2">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="H22" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I22" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="J22" t="s">
         <v>14</v>
@@ -2128,16 +2122,16 @@
     </row>
     <row r="23" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D23" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E23" t="s">
         <v>14</v>
@@ -2146,30 +2140,30 @@
         <v>14</v>
       </c>
       <c r="G23" s="2">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="H23" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I23" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="J23" t="s">
-        <v>14</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D24" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E24" t="s">
         <v>14</v>
@@ -2178,30 +2172,30 @@
         <v>14</v>
       </c>
       <c r="G24" s="2">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="H24" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I24" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="J24" t="s">
-        <v>102</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
       </c>
       <c r="C25" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D25" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E25" t="s">
         <v>14</v>
@@ -2210,13 +2204,13 @@
         <v>14</v>
       </c>
       <c r="G25" s="2">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="H25" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I25" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J25" t="s">
         <v>14</v>
@@ -2224,16 +2218,16 @@
     </row>
     <row r="26" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
       </c>
       <c r="C26" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D26" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E26" t="s">
         <v>14</v>
@@ -2245,10 +2239,10 @@
         <v>2017</v>
       </c>
       <c r="H26" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I26" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J26" t="s">
         <v>14</v>
@@ -2256,16 +2250,16 @@
     </row>
     <row r="27" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D27" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E27" t="s">
         <v>14</v>
@@ -2277,10 +2271,10 @@
         <v>2017</v>
       </c>
       <c r="H27" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I27" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J27" t="s">
         <v>14</v>
@@ -2288,31 +2282,31 @@
     </row>
     <row r="28" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="B28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D28" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="E28" t="s">
-        <v>14</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>14</v>
+        <v>84</v>
+      </c>
+      <c r="F28" s="2">
+        <v>2017</v>
       </c>
       <c r="G28" s="2">
         <v>2017</v>
       </c>
       <c r="H28" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="I28" t="s">
-        <v>114</v>
+        <v>14</v>
       </c>
       <c r="J28" t="s">
         <v>14</v>
@@ -2320,19 +2314,19 @@
     </row>
     <row r="29" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
       </c>
       <c r="C29" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D29" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E29" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F29" s="2">
         <v>2017</v>
@@ -2341,7 +2335,7 @@
         <v>2017</v>
       </c>
       <c r="H29" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I29" t="s">
         <v>14</v>
@@ -2352,28 +2346,28 @@
     </row>
     <row r="30" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
       </c>
       <c r="C30" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D30" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E30" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F30" s="2">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G30" s="2">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="H30" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I30" t="s">
         <v>14</v>
@@ -2384,19 +2378,19 @@
     </row>
     <row r="31" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="B31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D31" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E31" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F31" s="2">
         <v>2016</v>
@@ -2405,7 +2399,7 @@
         <v>2016</v>
       </c>
       <c r="H31" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I31" t="s">
         <v>14</v>
@@ -2416,19 +2410,19 @@
     </row>
     <row r="32" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
+        <v>123</v>
+      </c>
+      <c r="B32" t="b">
+        <v>0</v>
+      </c>
+      <c r="C32" t="s">
+        <v>127</v>
+      </c>
+      <c r="D32" t="s">
         <v>125</v>
       </c>
-      <c r="B32" t="b">
-        <v>1</v>
-      </c>
-      <c r="C32" t="s">
-        <v>126</v>
-      </c>
-      <c r="D32" t="s">
-        <v>127</v>
-      </c>
       <c r="E32" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F32" s="2">
         <v>2016</v>
@@ -2440,7 +2434,7 @@
         <v>128</v>
       </c>
       <c r="I32" t="s">
-        <v>14</v>
+        <v>129</v>
       </c>
       <c r="J32" t="s">
         <v>14</v>
@@ -2448,19 +2442,19 @@
     </row>
     <row r="33" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
+        <v>123</v>
+      </c>
+      <c r="B33" t="b">
+        <v>0</v>
+      </c>
+      <c r="C33" t="s">
+        <v>130</v>
+      </c>
+      <c r="D33" t="s">
         <v>125</v>
       </c>
-      <c r="B33" t="b">
-        <v>0</v>
-      </c>
-      <c r="C33" t="s">
-        <v>129</v>
-      </c>
-      <c r="D33" t="s">
-        <v>127</v>
-      </c>
       <c r="E33" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F33" s="2">
         <v>2016</v>
@@ -2469,10 +2463,10 @@
         <v>2016</v>
       </c>
       <c r="H33" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I33" t="s">
-        <v>131</v>
+        <v>14</v>
       </c>
       <c r="J33" t="s">
         <v>14</v>
@@ -2480,7 +2474,7 @@
     </row>
     <row r="34" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -2489,10 +2483,10 @@
         <v>132</v>
       </c>
       <c r="D34" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E34" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F34" s="2">
         <v>2016</v>
@@ -2512,7 +2506,7 @@
     </row>
     <row r="35" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B35" t="b">
         <v>0</v>
@@ -2521,10 +2515,10 @@
         <v>134</v>
       </c>
       <c r="D35" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E35" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F35" s="2">
         <v>2016</v>
@@ -2536,7 +2530,7 @@
         <v>135</v>
       </c>
       <c r="I35" t="s">
-        <v>14</v>
+        <v>136</v>
       </c>
       <c r="J35" t="s">
         <v>14</v>
@@ -2544,31 +2538,31 @@
     </row>
     <row r="36" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="B36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D36" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="E36" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F36" s="2">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G36" s="2">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="H36" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="I36" t="s">
-        <v>138</v>
+        <v>14</v>
       </c>
       <c r="J36" t="s">
         <v>14</v>
@@ -2576,19 +2570,19 @@
     </row>
     <row r="37" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C37" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D37" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E37" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F37" s="2">
         <v>2015</v>
@@ -2597,7 +2591,7 @@
         <v>2015</v>
       </c>
       <c r="H37" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I37" t="s">
         <v>14</v>
@@ -2608,19 +2602,19 @@
     </row>
     <row r="38" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B38" t="b">
         <v>0</v>
       </c>
       <c r="C38" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D38" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E38" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F38" s="2">
         <v>2015</v>
@@ -2629,7 +2623,7 @@
         <v>2015</v>
       </c>
       <c r="H38" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I38" t="s">
         <v>14</v>
@@ -2640,31 +2634,31 @@
     </row>
     <row r="39" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B39" t="b">
         <v>0</v>
       </c>
       <c r="C39" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D39" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E39" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F39" s="2">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="G39" s="2">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="H39" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I39" t="s">
-        <v>14</v>
+        <v>150</v>
       </c>
       <c r="J39" t="s">
         <v>14</v>
@@ -2672,31 +2666,31 @@
     </row>
     <row r="40" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C40" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D40" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E40" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F40" s="2">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="G40" s="2">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="H40" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="I40" t="s">
-        <v>152</v>
+        <v>14</v>
       </c>
       <c r="J40" t="s">
         <v>14</v>
@@ -2704,28 +2698,28 @@
     </row>
     <row r="41" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C41" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D41" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E41" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F41" s="2">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G41" s="2">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="H41" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I41" t="s">
         <v>14</v>
@@ -2736,28 +2730,28 @@
     </row>
     <row r="42" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C42" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D42" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E42" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F42" s="2">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="G42" s="2">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="H42" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I42" t="s">
         <v>14</v>
@@ -2768,19 +2762,19 @@
     </row>
     <row r="43" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C43" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D43" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E43" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F43" s="2">
         <v>2019</v>
@@ -2789,7 +2783,7 @@
         <v>2019</v>
       </c>
       <c r="H43" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I43" t="s">
         <v>14</v>
@@ -2800,22 +2794,22 @@
     </row>
     <row r="44" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B44" t="b">
         <v>0</v>
       </c>
       <c r="C44" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D44" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="E44" t="s">
-        <v>86</v>
-      </c>
-      <c r="F44" s="2">
-        <v>2019</v>
+        <v>14</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="G44" s="2">
         <v>2019</v>
@@ -2824,7 +2818,7 @@
         <v>164</v>
       </c>
       <c r="I44" t="s">
-        <v>14</v>
+        <v>165</v>
       </c>
       <c r="J44" t="s">
         <v>14</v>
@@ -2832,16 +2826,16 @@
     </row>
     <row r="45" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B45" t="b">
         <v>0</v>
       </c>
       <c r="C45" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D45" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E45" t="s">
         <v>14</v>
@@ -2853,44 +2847,12 @@
         <v>2019</v>
       </c>
       <c r="H45" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I45" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="J45" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>139</v>
-      </c>
-      <c r="B46" t="b">
-        <v>0</v>
-      </c>
-      <c r="C46" t="s">
-        <v>168</v>
-      </c>
-      <c r="D46" t="s">
-        <v>157</v>
-      </c>
-      <c r="E46" t="s">
-        <v>14</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G46" s="2">
-        <v>2019</v>
-      </c>
-      <c r="H46" t="s">
-        <v>169</v>
-      </c>
-      <c r="I46" t="s">
-        <v>167</v>
-      </c>
-      <c r="J46" t="s">
         <v>14</v>
       </c>
     </row>

--- a/positions1.xlsx
+++ b/positions1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sanaz\MASTER\ASU\Semesters\Fall 2021\CPP 527\Labs\Lab 06\Sanaz-CV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E378098-3FF2-443C-87FE-91610518E5DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B896294-81C0-464D-B269-08E0140C71BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1407,7 +1407,7 @@
   <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1660,7 +1660,7 @@
         <v>42491</v>
       </c>
       <c r="G8" s="2">
-        <v>43891</v>
+        <v>43525</v>
       </c>
       <c r="H8" t="s">
         <v>39</v>
